--- a/biology/Botanique/Myriophylle_à_fleurs_alternes/Myriophylle_à_fleurs_alternes.xlsx
+++ b/biology/Botanique/Myriophylle_à_fleurs_alternes/Myriophylle_à_fleurs_alternes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriophyllum alterniflorum, de nom commun Myriophylle à feuilles alternes, est une espèce de plantes aquatique vivace du genre Myriophyllum, de la famille des Haloragaceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante grêle, à tiges flottantes pouvant atteindre 1 m de longueur. les feuilles submergées sont verticillées par 3 à 5, généralement aussi longues que les entrenoeuds, constituées de 8 à 18 segments capillaires et mous[1].
-Appareil reproducteur
-L'inflorescence est aérienne, à l'extrémité redressée de tiges dont les feuilles sont de taille sensiblement réduite ; les fleurs en épi pauciflore, jaunâtres striées de rouge, sont alternes et très réduites ; unisexuées, les inférieures femelles  ont les pétales avortés ; les supérieures mâles ont 4 pétales. Les bractées florales se réduisent de la base au sommet ; l'épi se termine par des fleurs. Le fruit est une capsule très petite, conique et tronquée[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante grêle, à tiges flottantes pouvant atteindre 1 m de longueur. les feuilles submergées sont verticillées par 3 à 5, généralement aussi longues que les entrenoeuds, constituées de 8 à 18 segments capillaires et mous.
 </t>
         </is>
       </c>
@@ -527,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante hydrophyte dont la pollinisation est assurée par le vent et la dispersion des graines par l'eau, parfois par les oiseaux[1]. La floraison a lieu de Juillet à Septembre[2]
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est aérienne, à l'extrémité redressée de tiges dont les feuilles sont de taille sensiblement réduite ; les fleurs en épi pauciflore, jaunâtres striées de rouge, sont alternes et très réduites ; unisexuées, les inférieures femelles  ont les pétales avortés ; les supérieures mâles ont 4 pétales. Les bractées florales se réduisent de la base au sommet ; l'épi se termine par des fleurs. Le fruit est une capsule très petite, conique et tronquée.
 </t>
         </is>
       </c>
@@ -558,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +594,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat et écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce, qui vit essentiellement dans les tourbières, lacs, étangs ou rivières de montagne avec eaux très claires, exige des eaux fraîches (pas plus de 20 °C), très douces (craint le calcaire), acides (pH 5 à 7, mais maximum à 6,5 de préférence), un sol riche en tourbe et une exposition bien ensoleillée[3]. Elle pousse jusqu'à 1000 m d'altitude[1].
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante hydrophyte dont la pollinisation est assurée par le vent et la dispersion des graines par l'eau, parfois par les oiseaux. La floraison a lieu de Juillet à Septembre
 </t>
         </is>
       </c>
@@ -589,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +627,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce européenne, présente du Portugal et de la Sicile jusqu'en Laponie et en Russie, même au Groenland. Elle pourrait avoir été introduite en Amérique du nord où elle a été signalée. En France, on la retrouve çà et là, surtout dans les régions cristallines, mais elle est généralement assez rare ; elle est absente de la région méditerranéenne, mais présente dans les montagnes corses[1].
+          <t>Habitat et écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, qui vit essentiellement dans les tourbières, lacs, étangs ou rivières de montagne avec eaux très claires, exige des eaux fraîches (pas plus de 20 °C), très douces (craint le calcaire), acides (pH 5 à 7, mais maximum à 6,5 de préférence), un sol riche en tourbe et une exposition bien ensoleillée. Elle pousse jusqu'à 1000 m d'altitude.
 </t>
         </is>
       </c>
@@ -620,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,12 +660,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les myriophylles peuvent servir de plantes ornementales dans les bassins[4].
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce européenne, présente du Portugal et de la Sicile jusqu'en Laponie et en Russie, même au Groenland. Elle pourrait avoir été introduite en Amérique du nord où elle a été signalée. En France, on la retrouve çà et là, surtout dans les régions cristallines, mais elle est généralement assez rare ; elle est absente de la région méditerranéenne, mais présente dans les montagnes corses.
 </t>
         </is>
       </c>
@@ -651,7 +678,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Myriophylle_%C3%A0_fleurs_alternes</t>
+          <t>Myriophylle_à_fleurs_alternes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,15 +693,50 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les myriophylles peuvent servir de plantes ornementales dans les bassins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Myriophylle_à_fleurs_alternes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Myriophylle_%C3%A0_fleurs_alternes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Myriophyllum alterniflorum DC. var. alterniflorum
 Myriophyllum alterniflorum var. americanum Pugsley, 1938
 Myriophyllum alternifolium Macoun, 1894
-Myriophyllum verticillatum subsp. alterniflorum (DC.) Bonnier &amp; Layens, 1894[5]</t>
+Myriophyllum verticillatum subsp. alterniflorum (DC.) Bonnier &amp; Layens, 1894</t>
         </is>
       </c>
     </row>
